--- a/Code/Results/Cases/Case_5_143/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_143/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.19186343208022</v>
+        <v>19.01164980593796</v>
       </c>
       <c r="C2">
-        <v>6.7610796413255</v>
+        <v>5.266203629647237</v>
       </c>
       <c r="D2">
-        <v>5.812384084228666</v>
+        <v>8.475935357025193</v>
       </c>
       <c r="E2">
-        <v>6.945087755481012</v>
+        <v>10.66851330593063</v>
       </c>
       <c r="F2">
-        <v>35.80971527570825</v>
+        <v>42.06301780364806</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,16 +442,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.95176262369679</v>
+        <v>15.21615303703825</v>
       </c>
       <c r="L2">
-        <v>7.112772835804515</v>
+        <v>10.25156721744359</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.74526738803916</v>
+        <v>23.72442181002087</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.1765089575671</v>
+        <v>18.82691776739093</v>
       </c>
       <c r="C3">
-        <v>6.396815608811823</v>
+        <v>5.115554408923071</v>
       </c>
       <c r="D3">
-        <v>5.8823623951223</v>
+        <v>8.487262257346675</v>
       </c>
       <c r="E3">
-        <v>6.840065383852482</v>
+        <v>10.67603973725438</v>
       </c>
       <c r="F3">
-        <v>34.72683960473486</v>
+        <v>41.90554509757469</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,16 +483,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.19443803688852</v>
+        <v>15.0915623774294</v>
       </c>
       <c r="L3">
-        <v>6.913845750486288</v>
+        <v>10.2450932523301</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.82640080194636</v>
+        <v>23.75357729588042</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.53616816019377</v>
+        <v>18.71794610655805</v>
       </c>
       <c r="C4">
-        <v>6.164048119073119</v>
+        <v>5.019570367264838</v>
       </c>
       <c r="D4">
-        <v>5.92549511582462</v>
+        <v>8.494427539701309</v>
       </c>
       <c r="E4">
-        <v>6.778848141893399</v>
+        <v>10.68232289721531</v>
       </c>
       <c r="F4">
-        <v>34.07283870085121</v>
+        <v>41.81724240539629</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,16 +524,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.71792404048726</v>
+        <v>15.0187262712085</v>
       </c>
       <c r="L4">
-        <v>6.793780218459809</v>
+        <v>10.24307119016055</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.88153519166583</v>
+        <v>23.7733063517622</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.27123531297608</v>
+        <v>18.67470715159028</v>
       </c>
       <c r="C5">
-        <v>6.0669153147723</v>
+        <v>4.979606918859745</v>
       </c>
       <c r="D5">
-        <v>5.943132338435198</v>
+        <v>8.497400636014675</v>
       </c>
       <c r="E5">
-        <v>6.754721811373314</v>
+        <v>10.68530135535586</v>
       </c>
       <c r="F5">
-        <v>33.80926021068282</v>
+        <v>41.78338688379536</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,16 +565,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.52105252137289</v>
+        <v>14.98999542398255</v>
       </c>
       <c r="L5">
-        <v>6.745418527322398</v>
+        <v>10.24273923136101</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.90529091140451</v>
+        <v>23.78180538484959</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.2270114267026</v>
+        <v>18.66759923966767</v>
       </c>
       <c r="C6">
-        <v>6.050649466537396</v>
+        <v>4.97292057124111</v>
       </c>
       <c r="D6">
-        <v>5.946065147230044</v>
+        <v>8.497897535942657</v>
       </c>
       <c r="E6">
-        <v>6.750765131976742</v>
+        <v>10.68582117493787</v>
       </c>
       <c r="F6">
-        <v>33.76567620775993</v>
+        <v>41.7778942863354</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,16 +606,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.48820675851965</v>
+        <v>14.98528291467452</v>
       </c>
       <c r="L6">
-        <v>6.737423607961841</v>
+        <v>10.24271385093578</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.90931195566484</v>
+        <v>23.78324437496591</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.53261093977039</v>
+        <v>18.71735818097938</v>
       </c>
       <c r="C7">
-        <v>6.16274735208198</v>
+        <v>5.019034806837474</v>
       </c>
       <c r="D7">
-        <v>5.925732709785307</v>
+        <v>8.494467420262815</v>
       </c>
       <c r="E7">
-        <v>6.778519447271599</v>
+        <v>10.68236137311085</v>
       </c>
       <c r="F7">
-        <v>34.06927185105869</v>
+        <v>41.81677717554197</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,16 +647,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.7152795390118</v>
+        <v>15.0183349112406</v>
       </c>
       <c r="L7">
-        <v>6.793125644709449</v>
+        <v>10.24306471990628</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.88185041679537</v>
+        <v>23.77341911347395</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.84541741361129</v>
+        <v>18.94705903817286</v>
       </c>
       <c r="C8">
-        <v>6.637375484854394</v>
+        <v>5.214998555492086</v>
       </c>
       <c r="D8">
-        <v>5.836489820984312</v>
+        <v>8.479797330255243</v>
       </c>
       <c r="E8">
-        <v>6.908197432633058</v>
+        <v>10.67076359213349</v>
       </c>
       <c r="F8">
-        <v>35.43419122435495</v>
+        <v>42.00699327286502</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,16 +688,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.69313668551985</v>
+        <v>15.17245207988064</v>
       </c>
       <c r="L8">
-        <v>7.043777317289051</v>
+        <v>10.24893030439069</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.77210751695882</v>
+        <v>23.73409518078321</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.27721308520956</v>
+        <v>19.43063721122188</v>
       </c>
       <c r="C9">
-        <v>7.495916128186798</v>
+        <v>5.570566680476908</v>
       </c>
       <c r="D9">
-        <v>5.661885743864505</v>
+        <v>8.452687818551837</v>
       </c>
       <c r="E9">
-        <v>7.188465675897783</v>
+        <v>10.66119867400886</v>
       </c>
       <c r="F9">
-        <v>38.18975707632671</v>
+        <v>42.44556865764058</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,16 +729,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.59587497984377</v>
+        <v>15.50236473804646</v>
       </c>
       <c r="L9">
-        <v>7.550030186189166</v>
+        <v>10.27587645258017</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.60153299816797</v>
+        <v>23.67149296911011</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.96961205356636</v>
+        <v>19.80303359183175</v>
       </c>
       <c r="C10">
-        <v>8.083565661056141</v>
+        <v>5.813037471092737</v>
       </c>
       <c r="D10">
-        <v>5.5324522360995</v>
+        <v>8.433764101216571</v>
       </c>
       <c r="E10">
-        <v>7.410325682656279</v>
+        <v>10.6621899827886</v>
       </c>
       <c r="F10">
-        <v>40.25470584338293</v>
+        <v>42.80629427370013</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.1169714882648</v>
+        <v>15.7596832402031</v>
       </c>
       <c r="L10">
-        <v>7.928980001060913</v>
+        <v>10.30500359385082</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.50715912383624</v>
+        <v>23.63436293133046</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.71854878919892</v>
+        <v>19.97547845760151</v>
       </c>
       <c r="C11">
-        <v>8.341945114062556</v>
+        <v>5.919047021755796</v>
       </c>
       <c r="D11">
-        <v>5.472972397424749</v>
+        <v>8.425367191686048</v>
       </c>
       <c r="E11">
-        <v>7.51476809443775</v>
+        <v>10.66437671337536</v>
       </c>
       <c r="F11">
-        <v>41.20203506656172</v>
+        <v>42.97839853697953</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,16 +811,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.7800002392248</v>
+        <v>15.8795468328965</v>
       </c>
       <c r="L11">
-        <v>8.102609376610326</v>
+        <v>10.32025629800983</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.47188853841021</v>
+        <v>23.61939988494012</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.00001574154039</v>
+        <v>20.04115772976598</v>
       </c>
       <c r="C12">
-        <v>8.43854672041685</v>
+        <v>5.958556980262647</v>
       </c>
       <c r="D12">
-        <v>5.450330465400053</v>
+        <v>8.422217649610317</v>
       </c>
       <c r="E12">
-        <v>7.554830059230724</v>
+        <v>10.66545368373635</v>
       </c>
       <c r="F12">
-        <v>41.56189925495936</v>
+        <v>43.04468764309171</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,16 +852,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>18.02706202001583</v>
+        <v>15.9253017645944</v>
       </c>
       <c r="L12">
-        <v>8.168523409066907</v>
+        <v>10.32631755224975</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.45972322852514</v>
+        <v>23.614011253201</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.9388542578812</v>
+        <v>20.02699664530553</v>
       </c>
       <c r="C13">
-        <v>8.417796200666221</v>
+        <v>5.950076223150455</v>
       </c>
       <c r="D13">
-        <v>5.455212612256337</v>
+        <v>8.422894621163575</v>
       </c>
       <c r="E13">
-        <v>7.546179099012915</v>
+        <v>10.66521068130562</v>
       </c>
       <c r="F13">
-        <v>41.48434542158457</v>
+        <v>43.03036199338288</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,16 +893,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.97402882872487</v>
+        <v>15.91543199915295</v>
       </c>
       <c r="L13">
-        <v>8.154320464253132</v>
+        <v>10.32499950427863</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.4622887535027</v>
+        <v>23.6151594416405</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.74169433818154</v>
+        <v>19.98087469046693</v>
       </c>
       <c r="C14">
-        <v>8.349917162925694</v>
+        <v>5.922310314702943</v>
       </c>
       <c r="D14">
-        <v>5.471112195927932</v>
+        <v>8.425107473381271</v>
       </c>
       <c r="E14">
-        <v>7.51805371061311</v>
+        <v>10.66446033242712</v>
       </c>
       <c r="F14">
-        <v>41.23161853580995</v>
+        <v>42.98383000154269</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.80040569298334</v>
+        <v>15.88330402254117</v>
       </c>
       <c r="L14">
-        <v>8.108028919678334</v>
+        <v>10.32074925730545</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.47086327740616</v>
+        <v>23.61895099440635</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.62053860651422</v>
+        <v>19.95267115444552</v>
       </c>
       <c r="C15">
-        <v>8.308179188572577</v>
+        <v>5.905219930628637</v>
       </c>
       <c r="D15">
-        <v>5.480834751331036</v>
+        <v>8.426466833153071</v>
       </c>
       <c r="E15">
-        <v>7.500892998340833</v>
+        <v>10.66403311375265</v>
       </c>
       <c r="F15">
-        <v>41.07696379236695</v>
+        <v>42.95547221205225</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.69353851490833</v>
+        <v>15.86367111359961</v>
       </c>
       <c r="L15">
-        <v>8.079695144252351</v>
+        <v>10.31818294239301</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.47627332703128</v>
+        <v>23.62130958573549</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.92024587705452</v>
+        <v>19.79182004576073</v>
       </c>
       <c r="C16">
-        <v>8.066503582880882</v>
+        <v>5.806021691747886</v>
       </c>
       <c r="D16">
-        <v>5.536324655354876</v>
+        <v>8.434317096071453</v>
       </c>
       <c r="E16">
-        <v>7.403571352554017</v>
+        <v>10.66208194603273</v>
       </c>
       <c r="F16">
-        <v>40.19295357546431</v>
+        <v>42.79520508890722</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,16 +1016,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.07307116325837</v>
+        <v>15.7519030900143</v>
       </c>
       <c r="L16">
-        <v>7.917656491924224</v>
+        <v>10.30404687682315</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.5096257074751</v>
+        <v>23.63537962091695</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.48526964641605</v>
+        <v>19.69387978337027</v>
       </c>
       <c r="C17">
-        <v>7.915981222665367</v>
+        <v>5.744055304188575</v>
       </c>
       <c r="D17">
-        <v>5.570190548903436</v>
+        <v>8.439186998829653</v>
       </c>
       <c r="E17">
-        <v>7.344771913529458</v>
+        <v>10.66132908270596</v>
       </c>
       <c r="F17">
-        <v>39.65265667834749</v>
+        <v>42.69891353088758</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.68512602612939</v>
+        <v>15.68402895337469</v>
       </c>
       <c r="L17">
-        <v>7.818556371743994</v>
+        <v>10.29588602616749</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.53210894845164</v>
+        <v>23.64450509514237</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.23310800646646</v>
+        <v>19.63783681698181</v>
       </c>
       <c r="C18">
-        <v>7.828559425719804</v>
+        <v>5.708010785781732</v>
       </c>
       <c r="D18">
-        <v>5.58961494726904</v>
+        <v>8.442007967760311</v>
       </c>
       <c r="E18">
-        <v>7.311282558142854</v>
+        <v>10.66105948493474</v>
       </c>
       <c r="F18">
-        <v>39.34264054146075</v>
+        <v>42.6442851645097</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.45925805628351</v>
+        <v>15.64525621060849</v>
       </c>
       <c r="L18">
-        <v>7.761673954585517</v>
+        <v>10.29138078995753</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.54575587282874</v>
+        <v>23.64993523949886</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.14739156426081</v>
+        <v>19.61891317897834</v>
       </c>
       <c r="C19">
-        <v>7.798813515191308</v>
+        <v>5.695738031514306</v>
       </c>
       <c r="D19">
-        <v>5.596183298036641</v>
+        <v>8.44296652962751</v>
       </c>
       <c r="E19">
-        <v>7.30000026938598</v>
+        <v>10.66099629224511</v>
       </c>
       <c r="F19">
-        <v>39.23780426210944</v>
+        <v>42.62591980289431</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.38230954153178</v>
+        <v>15.6321753939424</v>
       </c>
       <c r="L19">
-        <v>7.7424352858739</v>
+        <v>10.28988787272681</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.55049674879919</v>
+        <v>23.65180493971762</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.53177804296872</v>
+        <v>19.70427613742778</v>
       </c>
       <c r="C20">
-        <v>7.932091777409123</v>
+        <v>5.750693575231221</v>
       </c>
       <c r="D20">
-        <v>5.566591314652308</v>
+        <v>8.438666528497514</v>
       </c>
       <c r="E20">
-        <v>7.35099697157245</v>
+        <v>10.66139231668074</v>
       </c>
       <c r="F20">
-        <v>39.71009503478022</v>
+        <v>42.70908593429449</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.72670520090389</v>
+        <v>15.69122695040263</v>
       </c>
       <c r="L20">
-        <v>7.829093736479267</v>
+        <v>10.29673525397442</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.52964093624869</v>
+        <v>23.64351489475067</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.79968609515928</v>
+        <v>19.99441203442766</v>
       </c>
       <c r="C21">
-        <v>8.369888151575523</v>
+        <v>5.930483151286595</v>
       </c>
       <c r="D21">
-        <v>5.466445582014645</v>
+        <v>8.424456687734629</v>
       </c>
       <c r="E21">
-        <v>7.526300861341388</v>
+        <v>10.66467397910365</v>
       </c>
       <c r="F21">
-        <v>41.30581970370527</v>
+        <v>42.99746754738044</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.85151068418246</v>
+        <v>15.8927311869494</v>
       </c>
       <c r="L21">
-        <v>8.121621477175225</v>
+        <v>10.32198993459262</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.46831165109197</v>
+        <v>23.61782978797185</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.67273274308653</v>
+        <v>20.18620938580692</v>
       </c>
       <c r="C22">
-        <v>8.648808007343616</v>
+        <v>6.044286846275622</v>
       </c>
       <c r="D22">
-        <v>5.400288257888743</v>
+        <v>8.415345567364472</v>
       </c>
       <c r="E22">
-        <v>7.64386114748605</v>
+        <v>10.66826912210862</v>
       </c>
       <c r="F22">
-        <v>42.3553438830197</v>
+        <v>43.19243466392798</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.56332489614784</v>
+        <v>16.02653627494023</v>
       </c>
       <c r="L22">
-        <v>8.31376331402536</v>
+        <v>10.34015737936406</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.43521954147607</v>
+        <v>23.60266101968242</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.19865966696817</v>
+        <v>20.08366384722268</v>
       </c>
       <c r="C23">
-        <v>8.500584811332869</v>
+        <v>5.983891097887634</v>
       </c>
       <c r="D23">
-        <v>5.43567373490184</v>
+        <v>8.420192334434249</v>
       </c>
       <c r="E23">
-        <v>7.580840591937068</v>
+        <v>10.66621787855143</v>
       </c>
       <c r="F23">
-        <v>41.79457759809635</v>
+        <v>43.08779487145509</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>18.18549699271263</v>
+        <v>15.95494174347678</v>
       </c>
       <c r="L23">
-        <v>8.211128268887505</v>
+        <v>10.33030992193636</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.45220971684691</v>
+        <v>23.61060871718642</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.51075810096422</v>
+        <v>19.69957511833579</v>
       </c>
       <c r="C24">
-        <v>7.924810953875333</v>
+        <v>5.747693717433767</v>
       </c>
       <c r="D24">
-        <v>5.568218667979815</v>
+        <v>8.438901767074872</v>
       </c>
       <c r="E24">
-        <v>7.348181641387666</v>
+        <v>10.6613632201089</v>
       </c>
       <c r="F24">
-        <v>39.68412525894615</v>
+        <v>42.70448471127541</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.70791609150479</v>
+        <v>15.68797195740206</v>
       </c>
       <c r="L24">
-        <v>7.824329507470032</v>
+        <v>10.29635073683319</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.53075448541886</v>
+        <v>23.64396199185631</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.63556609498859</v>
+        <v>19.29658223897302</v>
       </c>
       <c r="C25">
-        <v>7.271333914877571</v>
+        <v>5.477589029896144</v>
       </c>
       <c r="D25">
-        <v>5.709214329750039</v>
+        <v>8.459845909300151</v>
       </c>
       <c r="E25">
-        <v>7.109855822505352</v>
+        <v>10.66237652940634</v>
       </c>
       <c r="F25">
-        <v>37.43676970973036</v>
+        <v>42.32004519311511</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.03165826150518</v>
+        <v>15.41034627501618</v>
       </c>
       <c r="L25">
-        <v>7.411723462730359</v>
+        <v>10.26694110400113</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.64253693937276</v>
+        <v>23.68687315864315</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_143/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_143/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.01164980593796</v>
+        <v>18.19186343208025</v>
       </c>
       <c r="C2">
-        <v>5.266203629647237</v>
+        <v>6.761079641325179</v>
       </c>
       <c r="D2">
-        <v>8.475935357025193</v>
+        <v>5.812384084228923</v>
       </c>
       <c r="E2">
-        <v>10.66851330593063</v>
+        <v>6.945087755481097</v>
       </c>
       <c r="F2">
-        <v>42.06301780364806</v>
+        <v>35.80971527570838</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,16 +442,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.21615303703825</v>
+        <v>13.95176262369683</v>
       </c>
       <c r="L2">
-        <v>10.25156721744359</v>
+        <v>7.112772835804609</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>23.72442181002087</v>
+        <v>16.74526738803925</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.82691776739093</v>
+        <v>17.17650895756708</v>
       </c>
       <c r="C3">
-        <v>5.115554408923071</v>
+        <v>6.396815608811919</v>
       </c>
       <c r="D3">
-        <v>8.487262257346675</v>
+        <v>5.88236239512224</v>
       </c>
       <c r="E3">
-        <v>10.67603973725438</v>
+        <v>6.84006538385258</v>
       </c>
       <c r="F3">
-        <v>41.90554509757469</v>
+        <v>34.72683960473472</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,16 +483,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.0915623774294</v>
+        <v>13.1944380368885</v>
       </c>
       <c r="L3">
-        <v>10.2450932523301</v>
+        <v>6.913845750486279</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>23.75357729588042</v>
+        <v>16.82640080194633</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.71794610655805</v>
+        <v>16.53616816019376</v>
       </c>
       <c r="C4">
-        <v>5.019570367264838</v>
+        <v>6.164048119072904</v>
       </c>
       <c r="D4">
-        <v>8.494427539701309</v>
+        <v>5.925495115824881</v>
       </c>
       <c r="E4">
-        <v>10.68232289721531</v>
+        <v>6.778848141893542</v>
       </c>
       <c r="F4">
-        <v>41.81724240539629</v>
+        <v>34.07283870085126</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,16 +524,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.0187262712085</v>
+        <v>12.71792404048728</v>
       </c>
       <c r="L4">
-        <v>10.24307119016055</v>
+        <v>6.793780218459926</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.7733063517622</v>
+        <v>16.88153519166589</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.67470715159028</v>
+        <v>16.27123531297616</v>
       </c>
       <c r="C5">
-        <v>4.979606918859745</v>
+        <v>6.066915314772518</v>
       </c>
       <c r="D5">
-        <v>8.497400636014675</v>
+        <v>5.9431323384354</v>
       </c>
       <c r="E5">
-        <v>10.68530135535586</v>
+        <v>6.754721811373461</v>
       </c>
       <c r="F5">
-        <v>41.78338688379536</v>
+        <v>33.80926021068299</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,16 +565,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.98999542398255</v>
+        <v>12.52105252137292</v>
       </c>
       <c r="L5">
-        <v>10.24273923136101</v>
+        <v>6.745418527322444</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>23.78180538484959</v>
+        <v>16.9052909114046</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.66759923966767</v>
+        <v>16.22701142670256</v>
       </c>
       <c r="C6">
-        <v>4.97292057124111</v>
+        <v>6.050649466537683</v>
       </c>
       <c r="D6">
-        <v>8.497897535942657</v>
+        <v>5.946065147230307</v>
       </c>
       <c r="E6">
-        <v>10.68582117493787</v>
+        <v>6.750765131976835</v>
       </c>
       <c r="F6">
-        <v>41.7778942863354</v>
+        <v>33.76567620775965</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,16 +606,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.98528291467452</v>
+        <v>12.4882067585196</v>
       </c>
       <c r="L6">
-        <v>10.24271385093578</v>
+        <v>6.737423607961881</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>23.78324437496591</v>
+        <v>16.9093119556648</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.71735818097938</v>
+        <v>16.53261093977039</v>
       </c>
       <c r="C7">
-        <v>5.019034806837474</v>
+        <v>6.162747352081871</v>
       </c>
       <c r="D7">
-        <v>8.494467420262815</v>
+        <v>5.925732709785436</v>
       </c>
       <c r="E7">
-        <v>10.68236137311085</v>
+        <v>6.778519447271592</v>
       </c>
       <c r="F7">
-        <v>41.81677717554197</v>
+        <v>34.06927185105882</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,16 +647,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.0183349112406</v>
+        <v>12.71527953901181</v>
       </c>
       <c r="L7">
-        <v>10.24306471990628</v>
+        <v>6.793125644709483</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.77341911347395</v>
+        <v>16.88185041679546</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.94705903817286</v>
+        <v>17.84541741361122</v>
       </c>
       <c r="C8">
-        <v>5.214998555492086</v>
+        <v>6.637375484854215</v>
       </c>
       <c r="D8">
-        <v>8.479797330255243</v>
+        <v>5.836489820984316</v>
       </c>
       <c r="E8">
-        <v>10.67076359213349</v>
+        <v>6.908197432633107</v>
       </c>
       <c r="F8">
-        <v>42.00699327286502</v>
+        <v>35.43419122435479</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,16 +688,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.17245207988064</v>
+        <v>13.69313668551981</v>
       </c>
       <c r="L8">
-        <v>10.24893030439069</v>
+        <v>7.043777317289153</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>23.73409518078321</v>
+        <v>16.77210751695879</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.43063721122188</v>
+        <v>20.27721308520957</v>
       </c>
       <c r="C9">
-        <v>5.570566680476908</v>
+        <v>7.495916128186495</v>
       </c>
       <c r="D9">
-        <v>8.452687818551837</v>
+        <v>5.661885743864641</v>
       </c>
       <c r="E9">
-        <v>10.66119867400886</v>
+        <v>7.188465675897623</v>
       </c>
       <c r="F9">
-        <v>42.44556865764058</v>
+        <v>38.18975707632682</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,16 +729,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.50236473804646</v>
+        <v>15.59587497984369</v>
       </c>
       <c r="L9">
-        <v>10.27587645258017</v>
+        <v>7.550030186189097</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>23.67149296911011</v>
+        <v>16.60153299816806</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.80303359183175</v>
+        <v>21.96961205356631</v>
       </c>
       <c r="C10">
-        <v>5.813037471092737</v>
+        <v>8.083565661056324</v>
       </c>
       <c r="D10">
-        <v>8.433764101216571</v>
+        <v>5.532452236099685</v>
       </c>
       <c r="E10">
-        <v>10.6621899827886</v>
+        <v>7.410325682656214</v>
       </c>
       <c r="F10">
-        <v>42.80629427370013</v>
+        <v>40.25470584338286</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.7596832402031</v>
+        <v>17.11697148826473</v>
       </c>
       <c r="L10">
-        <v>10.30500359385082</v>
+        <v>7.928980001060879</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>23.63436293133046</v>
+        <v>16.50715912383628</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.97547845760151</v>
+        <v>22.71854878919894</v>
       </c>
       <c r="C11">
-        <v>5.919047021755796</v>
+        <v>8.341945114062895</v>
       </c>
       <c r="D11">
-        <v>8.425367191686048</v>
+        <v>5.472972397424678</v>
       </c>
       <c r="E11">
-        <v>10.66437671337536</v>
+        <v>7.514768094437876</v>
       </c>
       <c r="F11">
-        <v>42.97839853697953</v>
+        <v>41.20203506656177</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,16 +811,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.8795468328965</v>
+        <v>17.78000023922478</v>
       </c>
       <c r="L11">
-        <v>10.32025629800983</v>
+        <v>8.102609376610344</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>23.61939988494012</v>
+        <v>16.47188853841029</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.04115772976598</v>
+        <v>23.00001574154038</v>
       </c>
       <c r="C12">
-        <v>5.958556980262647</v>
+        <v>8.438546720416747</v>
       </c>
       <c r="D12">
-        <v>8.422217649610317</v>
+        <v>5.450330465400109</v>
       </c>
       <c r="E12">
-        <v>10.66545368373635</v>
+        <v>7.554830059230793</v>
       </c>
       <c r="F12">
-        <v>43.04468764309171</v>
+        <v>41.56189925495929</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,16 +852,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.9253017645944</v>
+        <v>18.02706202001581</v>
       </c>
       <c r="L12">
-        <v>10.32631755224975</v>
+        <v>8.16852340906695</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>23.614011253201</v>
+        <v>16.4597232285251</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.02699664530553</v>
+        <v>22.93885425788118</v>
       </c>
       <c r="C13">
-        <v>5.950076223150455</v>
+        <v>8.41779620066613</v>
       </c>
       <c r="D13">
-        <v>8.422894621163575</v>
+        <v>5.455212612256467</v>
       </c>
       <c r="E13">
-        <v>10.66521068130562</v>
+        <v>7.54617909901288</v>
       </c>
       <c r="F13">
-        <v>43.03036199338288</v>
+        <v>41.48434542158457</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,16 +893,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.91543199915295</v>
+        <v>17.97402882872483</v>
       </c>
       <c r="L13">
-        <v>10.32499950427863</v>
+        <v>8.154320464253116</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>23.6151594416405</v>
+        <v>16.46228875350274</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.98087469046693</v>
+        <v>22.74169433818155</v>
       </c>
       <c r="C14">
-        <v>5.922310314702943</v>
+        <v>8.349917162925886</v>
       </c>
       <c r="D14">
-        <v>8.425107473381271</v>
+        <v>5.47111219592806</v>
       </c>
       <c r="E14">
-        <v>10.66446033242712</v>
+        <v>7.518053710613165</v>
       </c>
       <c r="F14">
-        <v>42.98383000154269</v>
+        <v>41.23161853580995</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.88330402254117</v>
+        <v>17.80040569298337</v>
       </c>
       <c r="L14">
-        <v>10.32074925730545</v>
+        <v>8.108028919678318</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>23.61895099440635</v>
+        <v>16.47086327740617</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.95267115444552</v>
+        <v>22.62053860651419</v>
       </c>
       <c r="C15">
-        <v>5.905219930628637</v>
+        <v>8.308179188572657</v>
       </c>
       <c r="D15">
-        <v>8.426466833153071</v>
+        <v>5.480834751331042</v>
       </c>
       <c r="E15">
-        <v>10.66403311375265</v>
+        <v>7.500892998340886</v>
       </c>
       <c r="F15">
-        <v>42.95547221205225</v>
+        <v>41.07696379236702</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.86367111359961</v>
+        <v>17.69353851490822</v>
       </c>
       <c r="L15">
-        <v>10.31818294239301</v>
+        <v>8.079695144252348</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>23.62130958573549</v>
+        <v>16.47627332703139</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.79182004576073</v>
+        <v>21.92024587705447</v>
       </c>
       <c r="C16">
-        <v>5.806021691747886</v>
+        <v>8.066503582880804</v>
       </c>
       <c r="D16">
-        <v>8.434317096071453</v>
+        <v>5.536324655354868</v>
       </c>
       <c r="E16">
-        <v>10.66208194603273</v>
+        <v>7.403571352553939</v>
       </c>
       <c r="F16">
-        <v>42.79520508890722</v>
+        <v>40.19295357546428</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,16 +1016,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.7519030900143</v>
+        <v>17.07307116325835</v>
       </c>
       <c r="L16">
-        <v>10.30404687682315</v>
+        <v>7.917656491924223</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>23.63537962091695</v>
+        <v>16.50962570747515</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.69387978337027</v>
+        <v>21.48526964641608</v>
       </c>
       <c r="C17">
-        <v>5.744055304188575</v>
+        <v>7.915981222665461</v>
       </c>
       <c r="D17">
-        <v>8.439186998829653</v>
+        <v>5.570190548903438</v>
       </c>
       <c r="E17">
-        <v>10.66132908270596</v>
+        <v>7.344771913529426</v>
       </c>
       <c r="F17">
-        <v>42.69891353088758</v>
+        <v>39.65265667834726</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.68402895337469</v>
+        <v>16.68512602612952</v>
       </c>
       <c r="L17">
-        <v>10.29588602616749</v>
+        <v>7.818556371743986</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>23.64450509514237</v>
+        <v>16.53210894845144</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.63783681698181</v>
+        <v>21.23310800646644</v>
       </c>
       <c r="C18">
-        <v>5.708010785781732</v>
+        <v>7.828559425719503</v>
       </c>
       <c r="D18">
-        <v>8.442007967760311</v>
+        <v>5.589614947269102</v>
       </c>
       <c r="E18">
-        <v>10.66105948493474</v>
+        <v>7.311282558142941</v>
       </c>
       <c r="F18">
-        <v>42.6442851645097</v>
+        <v>39.34264054146082</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.64525621060849</v>
+        <v>16.45925805628339</v>
       </c>
       <c r="L18">
-        <v>10.29138078995753</v>
+        <v>7.761673954585549</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>23.64993523949886</v>
+        <v>16.54575587282887</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.61891317897834</v>
+        <v>21.14739156426083</v>
       </c>
       <c r="C19">
-        <v>5.695738031514306</v>
+        <v>7.798813515191321</v>
       </c>
       <c r="D19">
-        <v>8.44296652962751</v>
+        <v>5.596183298036775</v>
       </c>
       <c r="E19">
-        <v>10.66099629224511</v>
+        <v>7.300000269385998</v>
       </c>
       <c r="F19">
-        <v>42.62591980289431</v>
+        <v>39.23780426210938</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.6321753939424</v>
+        <v>16.38230954153184</v>
       </c>
       <c r="L19">
-        <v>10.28988787272681</v>
+        <v>7.742435285873891</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>23.65180493971762</v>
+        <v>16.55049674879912</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.70427613742778</v>
+        <v>21.5317780429687</v>
       </c>
       <c r="C20">
-        <v>5.750693575231221</v>
+        <v>7.932091777408927</v>
       </c>
       <c r="D20">
-        <v>8.438666528497514</v>
+        <v>5.566591314652372</v>
       </c>
       <c r="E20">
-        <v>10.66139231668074</v>
+        <v>7.350996971572392</v>
       </c>
       <c r="F20">
-        <v>42.70908593429449</v>
+        <v>39.71009503478008</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.69122695040263</v>
+        <v>16.72670520090393</v>
       </c>
       <c r="L20">
-        <v>10.29673525397442</v>
+        <v>7.829093736479253</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>23.64351489475067</v>
+        <v>16.52964093624856</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.99441203442766</v>
+        <v>22.79968609515932</v>
       </c>
       <c r="C21">
-        <v>5.930483151286595</v>
+        <v>8.369888151575225</v>
       </c>
       <c r="D21">
-        <v>8.424456687734629</v>
+        <v>5.466445582014711</v>
       </c>
       <c r="E21">
-        <v>10.66467397910365</v>
+        <v>7.526300861341345</v>
       </c>
       <c r="F21">
-        <v>42.99746754738044</v>
+        <v>41.30581970370528</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.8927311869494</v>
+        <v>17.85151068418248</v>
       </c>
       <c r="L21">
-        <v>10.32198993459262</v>
+        <v>8.121621477175259</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>23.61782978797185</v>
+        <v>16.46831165109188</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.18620938580692</v>
+        <v>23.67273274308639</v>
       </c>
       <c r="C22">
-        <v>6.044286846275622</v>
+        <v>8.64880800734403</v>
       </c>
       <c r="D22">
-        <v>8.415345567364472</v>
+        <v>5.400288257888754</v>
       </c>
       <c r="E22">
-        <v>10.66826912210862</v>
+        <v>7.643861147486103</v>
       </c>
       <c r="F22">
-        <v>43.19243466392798</v>
+        <v>42.35534388301975</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.02653627494023</v>
+        <v>18.56332489614777</v>
       </c>
       <c r="L22">
-        <v>10.34015737936406</v>
+        <v>8.313763314025326</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>23.60266101968242</v>
+        <v>16.4352195414762</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.08366384722268</v>
+        <v>23.1986596669682</v>
       </c>
       <c r="C23">
-        <v>5.983891097887634</v>
+        <v>8.500584811333042</v>
       </c>
       <c r="D23">
-        <v>8.420192334434249</v>
+        <v>5.435673734901776</v>
       </c>
       <c r="E23">
-        <v>10.66621787855143</v>
+        <v>7.580840591937115</v>
       </c>
       <c r="F23">
-        <v>43.08779487145509</v>
+        <v>41.79457759809643</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.95494174347678</v>
+        <v>18.18549699271271</v>
       </c>
       <c r="L23">
-        <v>10.33030992193636</v>
+        <v>8.211128268887464</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>23.61060871718642</v>
+        <v>16.45220971684696</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.69957511833579</v>
+        <v>21.5107581009642</v>
       </c>
       <c r="C24">
-        <v>5.747693717433767</v>
+        <v>7.924810953875438</v>
       </c>
       <c r="D24">
-        <v>8.438901767074872</v>
+        <v>5.56821866798001</v>
       </c>
       <c r="E24">
-        <v>10.6613632201089</v>
+        <v>7.348181641387712</v>
       </c>
       <c r="F24">
-        <v>42.70448471127541</v>
+        <v>39.6841252589461</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.68797195740206</v>
+        <v>16.70791609150477</v>
       </c>
       <c r="L24">
-        <v>10.29635073683319</v>
+        <v>7.824329507470074</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>23.64396199185631</v>
+        <v>16.53075448541885</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.29658223897302</v>
+        <v>19.63556609498856</v>
       </c>
       <c r="C25">
-        <v>5.477589029896144</v>
+        <v>7.271333914877583</v>
       </c>
       <c r="D25">
-        <v>8.459845909300151</v>
+        <v>5.709214329750163</v>
       </c>
       <c r="E25">
-        <v>10.66237652940634</v>
+        <v>7.109855822505367</v>
       </c>
       <c r="F25">
-        <v>42.32004519311511</v>
+        <v>37.43676970973029</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.41034627501618</v>
+        <v>15.03165826150516</v>
       </c>
       <c r="L25">
-        <v>10.26694110400113</v>
+        <v>7.411723462730385</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>23.68687315864315</v>
+        <v>16.64253693937271</v>
       </c>
       <c r="O25">
         <v>0</v>
